--- a/StructureDefinition-PrestadorHackaton.xlsx
+++ b/StructureDefinition-PrestadorHackaton.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26T21:09:05-04:00</t>
+    <t>2023-07-04T17:18:33-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PrestadorHackaton.xlsx
+++ b/StructureDefinition-PrestadorHackaton.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$50</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1887" uniqueCount="380">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-04T17:18:33-04:00</t>
+    <t>2023-07-19T16:02:56-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Prestador a ser usado en la Hackatón HLF</t>
+    <t>Prestador a ser usado en la Hackatón HLF. Contiene datos mínimos para mantener coherencia con la normativa nacional</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -635,10 +635,10 @@
 </t>
   </si>
   <si>
-    <t>Nombre Completo del Prestador</t>
-  </si>
-  <si>
-    <t>Descripción del nomnbre completo solo en un string</t>
+    <t>Nombre completo del Prestador</t>
+  </si>
+  <si>
+    <t>Nombre completo del Prestador individual</t>
   </si>
   <si>
     <t>The selection of the use property should ensure that there is a single usual name specified, and others use the nickname (alias), old, or other values as appropriate.  @@ -673,6 +673,22 @@
     <t>Practitioner.name.extension</t>
   </si>
   <si>
+    <t>Practitioner.name.extension:SegundoApellido</t>
+  </si>
+  <si>
+    <t>SegundoApellido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://hlf.cl/fhir/ig/hackaton/StructureDefinition/SegundoApellido}
+</t>
+  </si>
+  <si>
+    <t>2o Apellido Registrado</t>
+  </si>
+  <si>
+    <t>Esta extensión permite agregar un segundo apellido para el nombre del paciente</t>
+  </si>
+  <si>
     <t>Practitioner.name.use</t>
   </si>
   <si>
@@ -709,7 +725,10 @@
     <t>Practitioner.name.text</t>
   </si>
   <si>
-    <t>Nombres, Primer Apellido, Segundo Apellido</t>
+    <t>Text representation of the full name</t>
+  </si>
+  <si>
+    <t>Specifies the entire name as it should be displayed e.g. on an application UI. This may be provided instead of or as well as the specific parts.</t>
   </si>
   <si>
     <t>Can provide both a text representation and parts. Applications updating a name SHALL ensure that when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
@@ -734,10 +753,10 @@
 </t>
   </si>
   <si>
-    <t>Family name (often called 'Surname')</t>
-  </si>
-  <si>
-    <t>The part of a name that links to the genealogy. In some cultures (e.g. Eritrea) the family name of a son is the first name of his father.</t>
+    <t>1er Apellido del Prestador Individual</t>
+  </si>
+  <si>
+    <t>1er Apellido registrado por el prestador individual</t>
   </si>
   <si>
     <t>Family Name may be decomposed into specific parts using extensions (de, nl, es related cultures).</t>
@@ -762,10 +781,10 @@
 middle name</t>
   </si>
   <si>
-    <t>Given names (not always 'first'). Includes middle names</t>
-  </si>
-  <si>
-    <t>Given name.</t>
+    <t>Nombres del Prestador individual</t>
+  </si>
+  <si>
+    <t>Nombres registrados por el prestasdor</t>
   </si>
   <si>
     <t>If only initials are recorded, they may be used in place of the full name parts. Initials may be separated into multiple given names but often aren't due to paractical limitations.  This element is not called "first name" since given names do not always come first.</t>
@@ -1498,7 +1517,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO49"/>
+  <dimension ref="A1:AO50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1509,13 +1528,14 @@
   <cols>
     <col min="1" max="1" width="42.97265625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="42.97265625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.16015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="6" max="6" width="2.15234375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="2.15234375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="2.109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="2.109375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="22.921875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1539,7 +1559,6 @@
     <col min="32" max="32" width="35.23046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="2.15234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="23.1640625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="54.6015625" customWidth="true" bestFit="true"/>
@@ -4129,9 +4148,11 @@
         <v>207</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="D23" t="s" s="2">
         <v>34</v>
       </c>
@@ -4146,26 +4167,22 @@
         <v>34</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>66</v>
+        <v>209</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="O23" t="s" s="2">
         <v>211</v>
       </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>34</v>
       </c>
@@ -4189,13 +4206,13 @@
         <v>34</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>212</v>
+        <v>34</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>213</v>
+        <v>34</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>34</v>
@@ -4213,42 +4230,42 @@
         <v>34</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>214</v>
+        <v>126</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>215</v>
+        <v>34</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>216</v>
+        <v>34</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>217</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4256,7 +4273,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>46</v>
@@ -4265,25 +4282,25 @@
         <v>34</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>47</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>34</v>
@@ -4308,13 +4325,13 @@
         <v>34</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>34</v>
+        <v>217</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>34</v>
+        <v>218</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>34</v>
@@ -4332,7 +4349,7 @@
         <v>34</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>35</v>
@@ -4350,28 +4367,28 @@
         <v>34</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>34</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>226</v>
+        <v>34</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4393,15 +4410,17 @@
         <v>158</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M25" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>34</v>
       </c>
@@ -4449,7 +4468,7 @@
         <v>34</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>35</v>
@@ -4467,35 +4486,35 @@
         <v>34</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>233</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>34</v>
@@ -4510,13 +4529,13 @@
         <v>158</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4566,13 +4585,13 @@
         <v>34</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>34</v>
@@ -4584,32 +4603,32 @@
         <v>34</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>34</v>
+        <v>241</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>36</v>
@@ -4627,12 +4646,14 @@
         <v>158</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>34</v>
@@ -4681,7 +4702,7 @@
         <v>34</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>35</v>
@@ -4699,24 +4720,24 @@
         <v>34</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>249</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4742,10 +4763,10 @@
         <v>158</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4796,7 +4817,7 @@
         <v>34</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>35</v>
@@ -4814,16 +4835,16 @@
         <v>34</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AO28" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>34</v>
       </c>
     </row>
     <row r="29" hidden="true">
@@ -4842,7 +4863,7 @@
         <v>35</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>34</v>
@@ -4854,7 +4875,7 @@
         <v>47</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>257</v>
@@ -4863,9 +4884,7 @@
         <v>258</v>
       </c>
       <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>259</v>
-      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>34</v>
       </c>
@@ -4913,13 +4932,13 @@
         <v>34</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>34</v>
@@ -4931,24 +4950,24 @@
         <v>34</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AM29" t="s" s="2">
-        <v>262</v>
-      </c>
       <c r="AN29" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>175</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4959,7 +4978,7 @@
         <v>35</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>34</v>
@@ -4971,19 +4990,17 @@
         <v>47</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="N30" s="2"/>
+      <c r="O30" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>34</v>
@@ -5032,13 +5049,13 @@
         <v>34</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>34</v>
@@ -5050,24 +5067,24 @@
         <v>34</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>271</v>
+        <v>34</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>272</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5078,7 +5095,7 @@
         <v>35</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>34</v>
@@ -5090,17 +5107,19 @@
         <v>47</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>66</v>
+        <v>270</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="O31" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>34</v>
@@ -5125,13 +5144,13 @@
         <v>34</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>277</v>
+        <v>34</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>278</v>
+        <v>34</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>34</v>
@@ -5149,13 +5168,13 @@
         <v>34</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>34</v>
@@ -5167,24 +5186,24 @@
         <v>34</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5207,17 +5226,17 @@
         <v>47</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>284</v>
+        <v>66</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>34</v>
@@ -5242,13 +5261,13 @@
         <v>34</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>34</v>
+        <v>283</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>34</v>
+        <v>284</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>34</v>
@@ -5266,7 +5285,7 @@
         <v>34</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>35</v>
@@ -5284,24 +5303,24 @@
         <v>34</v>
       </c>
       <c r="AL32" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AO32" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>291</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5324,18 +5343,18 @@
         <v>47</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="L33" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>34</v>
       </c>
@@ -5383,7 +5402,7 @@
         <v>34</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>35</v>
@@ -5401,16 +5420,16 @@
         <v>34</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>34</v>
+        <v>294</v>
       </c>
       <c r="AM33" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AO33" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>34</v>
       </c>
     </row>
     <row r="34" hidden="true">
@@ -5429,7 +5448,7 @@
         <v>35</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>34</v>
@@ -5452,9 +5471,7 @@
       <c r="N34" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="O34" t="s" s="2">
-        <v>303</v>
-      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>34</v>
       </c>
@@ -5508,7 +5525,7 @@
         <v>35</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>34</v>
@@ -5520,24 +5537,24 @@
         <v>34</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>304</v>
+        <v>34</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>306</v>
+        <v>34</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>307</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5557,20 +5574,22 @@
         <v>34</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="O35" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>34</v>
@@ -5619,7 +5638,7 @@
         <v>34</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>35</v>
@@ -5637,24 +5656,24 @@
         <v>34</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>34</v>
+        <v>310</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AO35" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>315</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5677,18 +5696,18 @@
         <v>34</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M36" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>34</v>
       </c>
@@ -5736,7 +5755,7 @@
         <v>34</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>35</v>
@@ -5754,24 +5773,24 @@
         <v>34</v>
       </c>
       <c r="AL36" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AO36" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>323</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5782,7 +5801,7 @@
         <v>35</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>34</v>
@@ -5794,15 +5813,17 @@
         <v>34</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>158</v>
+        <v>323</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>116</v>
+        <v>324</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>34</v>
@@ -5851,53 +5872,53 @@
         <v>34</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>118</v>
+        <v>322</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>34</v>
+        <v>327</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>120</v>
+        <v>328</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>34</v>
+        <v>329</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>34</v>
@@ -5909,17 +5930,15 @@
         <v>34</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>34</v>
@@ -5968,19 +5987,19 @@
         <v>34</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>34</v>
@@ -6000,14 +6019,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>327</v>
+        <v>93</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6020,26 +6039,24 @@
         <v>34</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>94</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>328</v>
+        <v>95</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>329</v>
+        <v>122</v>
       </c>
       <c r="N39" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="O39" t="s" s="2">
-        <v>103</v>
-      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>34</v>
       </c>
@@ -6087,7 +6104,7 @@
         <v>34</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>330</v>
+        <v>126</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>35</v>
@@ -6108,7 +6125,7 @@
         <v>34</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>34</v>
@@ -6119,14 +6136,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>34</v>
+        <v>333</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6139,23 +6156,25 @@
         <v>34</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="O40" t="s" s="2">
-        <v>334</v>
+        <v>103</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>34</v>
@@ -6204,7 +6223,7 @@
         <v>34</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>35</v>
@@ -6216,7 +6235,7 @@
         <v>34</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>34</v>
@@ -6225,7 +6244,7 @@
         <v>34</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>335</v>
+        <v>91</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>34</v>
@@ -6236,10 +6255,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6247,10 +6266,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>34</v>
@@ -6262,16 +6281,18 @@
         <v>34</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>34</v>
       </c>
@@ -6295,13 +6316,13 @@
         <v>34</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>339</v>
+        <v>34</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>340</v>
+        <v>34</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>341</v>
+        <v>34</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>34</v>
@@ -6319,13 +6340,13 @@
         <v>34</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>34</v>
@@ -6340,21 +6361,21 @@
         <v>34</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>342</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6362,7 +6383,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>46</v>
@@ -6377,18 +6398,16 @@
         <v>34</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="M42" t="s" s="2">
-        <v>345</v>
-      </c>
       <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>346</v>
-      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>34</v>
       </c>
@@ -6412,13 +6431,13 @@
         <v>34</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>34</v>
+        <v>345</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>34</v>
+        <v>346</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>34</v>
+        <v>347</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>34</v>
@@ -6436,10 +6455,10 @@
         <v>34</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>46</v>
@@ -6457,7 +6476,7 @@
         <v>34</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>34</v>
@@ -6494,7 +6513,7 @@
         <v>34</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="L43" t="s" s="2">
         <v>350</v>
@@ -6503,7 +6522,9 @@
         <v>351</v>
       </c>
       <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>34</v>
       </c>
@@ -6572,21 +6593,21 @@
         <v>34</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>34</v>
+        <v>354</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6597,7 +6618,7 @@
         <v>35</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>34</v>
@@ -6609,17 +6630,15 @@
         <v>34</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>317</v>
+        <v>177</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>34</v>
@@ -6668,13 +6687,13 @@
         <v>34</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>34</v>
@@ -6689,7 +6708,7 @@
         <v>34</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>34</v>
@@ -6700,10 +6719,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6714,7 +6733,7 @@
         <v>35</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>34</v>
@@ -6726,15 +6745,17 @@
         <v>34</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>158</v>
+        <v>323</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>116</v>
+        <v>360</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>34</v>
@@ -6783,19 +6804,19 @@
         <v>34</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>118</v>
+        <v>359</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>34</v>
@@ -6804,7 +6825,7 @@
         <v>34</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>120</v>
+        <v>363</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>34</v>
@@ -6815,21 +6836,21 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>34</v>
@@ -6841,17 +6862,15 @@
         <v>34</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>34</v>
@@ -6900,19 +6919,19 @@
         <v>34</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>34</v>
@@ -6932,14 +6951,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>327</v>
+        <v>93</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6952,26 +6971,24 @@
         <v>34</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>94</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>328</v>
+        <v>95</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>329</v>
+        <v>122</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="O47" t="s" s="2">
-        <v>103</v>
-      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>34</v>
       </c>
@@ -7019,7 +7036,7 @@
         <v>34</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>330</v>
+        <v>126</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>35</v>
@@ -7040,7 +7057,7 @@
         <v>34</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>34</v>
@@ -7051,45 +7068,45 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>34</v>
+        <v>333</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>34</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>362</v>
+        <v>334</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>363</v>
+        <v>335</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>364</v>
+        <v>97</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>365</v>
+        <v>103</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>34</v>
@@ -7114,13 +7131,13 @@
         <v>34</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>34</v>
@@ -7138,28 +7155,28 @@
         <v>34</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>366</v>
+        <v>34</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>367</v>
+        <v>91</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>34</v>
@@ -7170,10 +7187,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7181,7 +7198,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>46</v>
@@ -7196,19 +7213,19 @@
         <v>34</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="N49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>34</v>
@@ -7233,13 +7250,13 @@
         <v>34</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>34</v>
@@ -7257,10 +7274,10 @@
         <v>34</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>46</v>
@@ -7275,7 +7292,7 @@
         <v>34</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>34</v>
+        <v>372</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>373</v>
@@ -7287,8 +7304,127 @@
         <v>34</v>
       </c>
     </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="P50" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AO49">
+  <autoFilter ref="A1:AO50">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7298,7 +7434,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI48">
+  <conditionalFormatting sqref="A2:AI49">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-PrestadorHackaton.xlsx
+++ b/StructureDefinition-PrestadorHackaton.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-19T16:02:56-04:00</t>
+    <t>2023-07-21T15:33:08-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PrestadorHackaton.xlsx
+++ b/StructureDefinition-PrestadorHackaton.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-21T15:33:08-04:00</t>
+    <t>2023-07-24T10:24:09-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PrestadorHackaton.xlsx
+++ b/StructureDefinition-PrestadorHackaton.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-24T10:24:09-04:00</t>
+    <t>2023-07-24T11:34:17-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
